--- a/Все модули детальный расчет.xlsx
+++ b/Все модули детальный расчет.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <si>
     <t>№п/п</t>
   </si>
@@ -1133,15 +1133,100 @@
   </si>
   <si>
     <t>АРПолка 0.417*0.290 (№KWH419, ЛДСП Белый базовый 16 мм, МД 00)N000</t>
+  </si>
+  <si>
+    <t>EWV1D,Шкаф верхний,Левый,ЛДСП Белый базовый 16 мм,Комплектация №2,1 250,596,315,Две,Деревянная</t>
+  </si>
+  <si>
+    <t>Гофрозаготовка,1280_3,401,1,1 374,582,51</t>
+  </si>
+  <si>
+    <t>АРЗадняя стенка 1.240*0.578 (№000, ХДФ Белый  3 мм, МД 00)N000</t>
+  </si>
+  <si>
+    <t>АРПолка 0.563*0.290 (№KWH419, ЛДСП Белый базовый 16 мм, МД 00)N000</t>
+  </si>
+  <si>
+    <t>EWV1D,Шкаф верхний,Левый,ЛДСП Белый базовый 16 мм,Комплектация №2,1 250,596,315,Две,Стеклянная</t>
+  </si>
+  <si>
+    <t>Гофрозаготовка,970_3,403,1,604,332,60</t>
+  </si>
+  <si>
+    <t>Стекло,6 мм,Прозрачное бесцветное 6 мм,ПР,562,290</t>
+  </si>
+  <si>
+    <t>EWV2V,Шкаф верхний,ЛДСП Белый базовый 16 мм,Комплектация №2,720,450,315,Складной</t>
+  </si>
+  <si>
+    <t>АРЗадняя стенка 0.710*0.432 (№000, ХДФ Белый  3 мм, МД 00)N000</t>
+  </si>
+  <si>
+    <t>КФ крепежа корпуса 14</t>
+  </si>
+  <si>
+    <t>Гофрозаготовка,1280_3,401,1,844,436,54</t>
+  </si>
+  <si>
+    <t>АРЦарга 0.418*0.100 (№KWH419, ЛДСП Белый базовый 16 мм, МД 00)N000</t>
+  </si>
+  <si>
+    <t>EWV1V,Шкаф верхний,ЛДСП Белый базовый 16 мм,Комплектация №2,600,446,315,Поворотный</t>
+  </si>
+  <si>
+    <t>АРГоризонт верхний 0.414*0.295 (№KWH419, ЛДСП Белый базовый 16 мм, МД 00)N000</t>
+  </si>
+  <si>
+    <t>Гофрозаготовка,1280_3,401,1,724,432,51</t>
+  </si>
+  <si>
+    <t>АРЗадняя стенка 0.590*0.428 (№000, ХДФ Белый  3 мм, МД 00)N000</t>
+  </si>
+  <si>
+    <t>КФ сушка 45 одноуровневая</t>
+  </si>
+  <si>
+    <t>EWV1V,Шкаф верхний,ЛДСП Белый базовый 16 мм,Комплектация №2,480,446,315,Поворотный</t>
+  </si>
+  <si>
+    <t>АРБоковина левая 0.480*0.315 (№KWH419, ЛДСП Белый базовый 16 мм, МД 00)N000</t>
+  </si>
+  <si>
+    <t>АРБоковина правая 0.480*0.315 (№KWH419, ЛДСП Белый базовый 16 мм, МД 00)N000</t>
+  </si>
+  <si>
+    <t>Гофрозаготовка,1280_3,401,1,604,432,51</t>
+  </si>
+  <si>
+    <t>АРЗадняя стенка 0.470*0.428 (№000, ХДФ Белый  3 мм, МД 00)N000</t>
+  </si>
+  <si>
+    <t>EWV1V,Шкаф верхний,ЛДСП Белый базовый 16 мм,Комплектация №2,480,896,315,Поворотный</t>
+  </si>
+  <si>
+    <t>АРГоризонт верхний 0.864*0.295 (№KWH419, ЛДСП Белый базовый 16 мм, МД 00)N000</t>
+  </si>
+  <si>
+    <t>Гофрозаготовка,1280_3,401,1,604,443,51</t>
+  </si>
+  <si>
+    <t>АРЗадняя стенка 0.470*0.439 (№000, ХДФ Белый  3 мм, МД 00)N000</t>
+  </si>
+  <si>
+    <t>АРЗадняя стенка правая 0.470*0.439 (№000, ХДФ Белый  3 мм, МД 00)N000</t>
+  </si>
+  <si>
+    <t>КФ сушка 90 одноуровневая</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="50" formatCode=""/>
     <numFmt numFmtId="51" formatCode="#,##0.0"/>
+    <numFmt numFmtId="52" formatCode="0.0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1246,7 +1331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -1311,6 +1396,9 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="52" fontId="5" borderId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1330,7 +1418,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="G1553"/>
+  <dimension ref="G1647"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -25557,6 +25645,1471 @@
         <v>30800</v>
       </c>
     </row>
+    <row r="1554" ht="12" customHeight="true">
+      <c r="A1554" s="3" t="n">
+        <v>96</v>
+      </c>
+      <c r="B1554" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1554" s="5" t="e"/>
+      <c r="D1554" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1554" s="6" t="n">
+        <v>2337.46</v>
+      </c>
+      <c r="F1554" s="6" t="n">
+        <v>2337.46</v>
+      </c>
+      <c r="G1554" s="7" t="e"/>
+    </row>
+    <row r="1555" ht="12" customHeight="true">
+      <c r="A1555" s="8" t="e"/>
+      <c r="B1555" s="8" t="e"/>
+      <c r="C1555" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1555" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1555" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="F1555" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="G1555" s="7" t="e"/>
+    </row>
+    <row r="1556" ht="12" customHeight="true">
+      <c r="A1556" s="8" t="e"/>
+      <c r="B1556" s="8" t="e"/>
+      <c r="C1556" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1556" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1556" s="12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1556" s="12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1556" s="7" t="e"/>
+    </row>
+    <row r="1557" ht="12" customHeight="true">
+      <c r="A1557" s="8" t="e"/>
+      <c r="B1557" s="8" t="e"/>
+      <c r="C1557" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1557" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1557" s="12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1557" s="12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1557" s="7" t="e"/>
+    </row>
+    <row r="1558" ht="12" customHeight="true">
+      <c r="A1558" s="8" t="e"/>
+      <c r="B1558" s="8" t="e"/>
+      <c r="C1558" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1558" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1558" s="11" t="e"/>
+      <c r="F1558" s="11" t="e"/>
+      <c r="G1558" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1559" ht="12" customHeight="true">
+      <c r="A1559" s="8" t="e"/>
+      <c r="B1559" s="8" t="e"/>
+      <c r="C1559" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1559" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1559" s="11" t="e"/>
+      <c r="F1559" s="11" t="e"/>
+      <c r="G1559" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1560" ht="12" customHeight="true">
+      <c r="A1560" s="8" t="e"/>
+      <c r="B1560" s="8" t="e"/>
+      <c r="C1560" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1560" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1560" s="11" t="e"/>
+      <c r="F1560" s="11" t="e"/>
+      <c r="G1560" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1561" ht="12" customHeight="true">
+      <c r="A1561" s="8" t="e"/>
+      <c r="B1561" s="8" t="e"/>
+      <c r="C1561" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1561" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1561" s="11" t="e"/>
+      <c r="F1561" s="11" t="e"/>
+      <c r="G1561" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1562" ht="12" customHeight="true">
+      <c r="A1562" s="8" t="e"/>
+      <c r="B1562" s="8" t="e"/>
+      <c r="C1562" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1562" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1562" s="11" t="e"/>
+      <c r="F1562" s="11" t="e"/>
+      <c r="G1562" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1563" ht="12" customHeight="true">
+      <c r="A1563" s="8" t="e"/>
+      <c r="B1563" s="8" t="e"/>
+      <c r="C1563" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1563" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1563" s="11" t="e"/>
+      <c r="F1563" s="11" t="e"/>
+      <c r="G1563" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1564" ht="12" customHeight="true">
+      <c r="A1564" s="8" t="e"/>
+      <c r="B1564" s="8" t="e"/>
+      <c r="C1564" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1564" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1564" s="10" t="n">
+        <v>340</v>
+      </c>
+      <c r="F1564" s="10" t="n">
+        <v>340</v>
+      </c>
+      <c r="G1564" s="7" t="e"/>
+    </row>
+    <row r="1565" ht="12" customHeight="true">
+      <c r="A1565" s="8" t="e"/>
+      <c r="B1565" s="8" t="e"/>
+      <c r="C1565" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1565" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1565" s="15" t="n">
+        <v>4920</v>
+      </c>
+      <c r="F1565" s="15" t="n">
+        <v>4920</v>
+      </c>
+      <c r="G1565" s="7" t="e"/>
+    </row>
+    <row r="1566" ht="12" customHeight="true">
+      <c r="A1566" s="8" t="e"/>
+      <c r="B1566" s="8" t="e"/>
+      <c r="C1566" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1566" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1566" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1566" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1566" s="7" t="e"/>
+    </row>
+    <row r="1567" ht="12" customHeight="true">
+      <c r="A1567" s="8" t="e"/>
+      <c r="B1567" s="8" t="e"/>
+      <c r="C1567" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1567" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1567" s="10" t="n">
+        <v>500</v>
+      </c>
+      <c r="F1567" s="15" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1567" s="7" t="e"/>
+    </row>
+    <row r="1568" ht="12" customHeight="true">
+      <c r="A1568" s="8" t="e"/>
+      <c r="B1568" s="8" t="e"/>
+      <c r="C1568" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1568" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1568" s="12" t="n">
+        <v>305.64</v>
+      </c>
+      <c r="F1568" s="12" t="n">
+        <v>611.28</v>
+      </c>
+      <c r="G1568" s="7" t="e"/>
+    </row>
+    <row r="1569" ht="13" customHeight="true">
+      <c r="E1569" s="13" t="n">
+        <v>9938.49</v>
+      </c>
+      <c r="F1569" s="13" t="n">
+        <v>9938.49</v>
+      </c>
+    </row>
+    <row r="1570" ht="12" customHeight="true">
+      <c r="A1570" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="B1570" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1570" s="5" t="e"/>
+      <c r="D1570" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1570" s="6" t="n">
+        <v>2337.46</v>
+      </c>
+      <c r="F1570" s="6" t="n">
+        <v>2337.46</v>
+      </c>
+      <c r="G1570" s="7" t="e"/>
+    </row>
+    <row r="1571" ht="12" customHeight="true">
+      <c r="A1571" s="8" t="e"/>
+      <c r="B1571" s="8" t="e"/>
+      <c r="C1571" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1571" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1571" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="F1571" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="G1571" s="7" t="e"/>
+    </row>
+    <row r="1572" ht="12" customHeight="true">
+      <c r="A1572" s="8" t="e"/>
+      <c r="B1572" s="8" t="e"/>
+      <c r="C1572" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1572" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1572" s="12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1572" s="12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1572" s="7" t="e"/>
+    </row>
+    <row r="1573" ht="12" customHeight="true">
+      <c r="A1573" s="8" t="e"/>
+      <c r="B1573" s="8" t="e"/>
+      <c r="C1573" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1573" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1573" s="12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1573" s="12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1573" s="7" t="e"/>
+    </row>
+    <row r="1574" ht="12" customHeight="true">
+      <c r="A1574" s="8" t="e"/>
+      <c r="B1574" s="8" t="e"/>
+      <c r="C1574" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1574" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1574" s="11" t="e"/>
+      <c r="F1574" s="11" t="e"/>
+      <c r="G1574" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1575" ht="12" customHeight="true">
+      <c r="A1575" s="8" t="e"/>
+      <c r="B1575" s="8" t="e"/>
+      <c r="C1575" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1575" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1575" s="11" t="e"/>
+      <c r="F1575" s="11" t="e"/>
+      <c r="G1575" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1576" ht="12" customHeight="true">
+      <c r="A1576" s="8" t="e"/>
+      <c r="B1576" s="8" t="e"/>
+      <c r="C1576" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1576" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1576" s="11" t="e"/>
+      <c r="F1576" s="11" t="e"/>
+      <c r="G1576" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1577" ht="12" customHeight="true">
+      <c r="A1577" s="8" t="e"/>
+      <c r="B1577" s="8" t="e"/>
+      <c r="C1577" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1577" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1577" s="11" t="e"/>
+      <c r="F1577" s="11" t="e"/>
+      <c r="G1577" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1578" ht="12" customHeight="true">
+      <c r="A1578" s="8" t="e"/>
+      <c r="B1578" s="8" t="e"/>
+      <c r="C1578" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1578" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1578" s="11" t="e"/>
+      <c r="F1578" s="11" t="e"/>
+      <c r="G1578" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1579" ht="12" customHeight="true">
+      <c r="A1579" s="8" t="e"/>
+      <c r="B1579" s="8" t="e"/>
+      <c r="C1579" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1579" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1579" s="11" t="e"/>
+      <c r="F1579" s="11" t="e"/>
+      <c r="G1579" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1580" ht="12" customHeight="true">
+      <c r="A1580" s="8" t="e"/>
+      <c r="B1580" s="8" t="e"/>
+      <c r="C1580" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1580" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1580" s="11" t="e"/>
+      <c r="F1580" s="11" t="e"/>
+      <c r="G1580" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1581" ht="12" customHeight="true">
+      <c r="A1581" s="8" t="e"/>
+      <c r="B1581" s="8" t="e"/>
+      <c r="C1581" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1581" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1581" s="10" t="n">
+        <v>340</v>
+      </c>
+      <c r="F1581" s="10" t="n">
+        <v>340</v>
+      </c>
+      <c r="G1581" s="7" t="e"/>
+    </row>
+    <row r="1582" ht="12" customHeight="true">
+      <c r="A1582" s="8" t="e"/>
+      <c r="B1582" s="8" t="e"/>
+      <c r="C1582" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1582" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1582" s="15" t="n">
+        <v>4920</v>
+      </c>
+      <c r="F1582" s="15" t="n">
+        <v>4920</v>
+      </c>
+      <c r="G1582" s="7" t="e"/>
+    </row>
+    <row r="1583" ht="12" customHeight="true">
+      <c r="A1583" s="8" t="e"/>
+      <c r="B1583" s="8" t="e"/>
+      <c r="C1583" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1583" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1583" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1583" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1583" s="7" t="e"/>
+    </row>
+    <row r="1584" ht="12" customHeight="true">
+      <c r="A1584" s="8" t="e"/>
+      <c r="B1584" s="8" t="e"/>
+      <c r="C1584" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1584" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1584" s="10" t="n">
+        <v>500</v>
+      </c>
+      <c r="F1584" s="15" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1584" s="7" t="e"/>
+    </row>
+    <row r="1585" ht="12" customHeight="true">
+      <c r="A1585" s="8" t="e"/>
+      <c r="B1585" s="8" t="e"/>
+      <c r="C1585" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1585" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1585" s="22" t="n">
+        <v>474.6</v>
+      </c>
+      <c r="F1585" s="22" t="n">
+        <v>949.2</v>
+      </c>
+      <c r="G1585" s="7" t="e"/>
+    </row>
+    <row r="1586" ht="13" customHeight="true">
+      <c r="E1586" s="13" t="n">
+        <v>10276.69</v>
+      </c>
+      <c r="F1586" s="13" t="n">
+        <v>10276.69</v>
+      </c>
+    </row>
+    <row r="1587" ht="12" customHeight="true">
+      <c r="A1587" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="B1587" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1587" s="5" t="e"/>
+      <c r="D1587" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1587" s="18" t="n">
+        <v>1460</v>
+      </c>
+      <c r="F1587" s="18" t="n">
+        <v>1460</v>
+      </c>
+      <c r="G1587" s="7" t="e"/>
+    </row>
+    <row r="1588" ht="12" customHeight="true">
+      <c r="A1588" s="8" t="e"/>
+      <c r="B1588" s="8" t="e"/>
+      <c r="C1588" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1588" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1588" s="11" t="e"/>
+      <c r="F1588" s="11" t="e"/>
+      <c r="G1588" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1589" ht="12" customHeight="true">
+      <c r="A1589" s="8" t="e"/>
+      <c r="B1589" s="8" t="e"/>
+      <c r="C1589" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1589" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1589" s="11" t="e"/>
+      <c r="F1589" s="11" t="e"/>
+      <c r="G1589" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1590" ht="12" customHeight="true">
+      <c r="A1590" s="8" t="e"/>
+      <c r="B1590" s="8" t="e"/>
+      <c r="C1590" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1590" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1590" s="11" t="e"/>
+      <c r="F1590" s="11" t="e"/>
+      <c r="G1590" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1591" ht="12" customHeight="true">
+      <c r="A1591" s="8" t="e"/>
+      <c r="B1591" s="8" t="e"/>
+      <c r="C1591" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1591" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1591" s="10" t="n">
+        <v>340</v>
+      </c>
+      <c r="F1591" s="10" t="n">
+        <v>340</v>
+      </c>
+      <c r="G1591" s="7" t="e"/>
+    </row>
+    <row r="1592" ht="12" customHeight="true">
+      <c r="A1592" s="8" t="e"/>
+      <c r="B1592" s="8" t="e"/>
+      <c r="C1592" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1592" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1592" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="F1592" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="G1592" s="7" t="e"/>
+    </row>
+    <row r="1593" ht="12" customHeight="true">
+      <c r="A1593" s="8" t="e"/>
+      <c r="B1593" s="8" t="e"/>
+      <c r="C1593" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1593" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1593" s="12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1593" s="12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1593" s="7" t="e"/>
+    </row>
+    <row r="1594" ht="12" customHeight="true">
+      <c r="A1594" s="8" t="e"/>
+      <c r="B1594" s="8" t="e"/>
+      <c r="C1594" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1594" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1594" s="11" t="e"/>
+      <c r="F1594" s="11" t="e"/>
+      <c r="G1594" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1595" ht="12" customHeight="true">
+      <c r="A1595" s="8" t="e"/>
+      <c r="B1595" s="8" t="e"/>
+      <c r="C1595" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1595" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1595" s="11" t="e"/>
+      <c r="F1595" s="11" t="e"/>
+      <c r="G1595" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1596" ht="12" customHeight="true">
+      <c r="A1596" s="8" t="e"/>
+      <c r="B1596" s="8" t="e"/>
+      <c r="C1596" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1596" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1596" s="11" t="e"/>
+      <c r="F1596" s="11" t="e"/>
+      <c r="G1596" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1597" ht="12" customHeight="true">
+      <c r="A1597" s="8" t="e"/>
+      <c r="B1597" s="8" t="e"/>
+      <c r="C1597" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1597" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1597" s="11" t="e"/>
+      <c r="F1597" s="11" t="e"/>
+      <c r="G1597" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1598" ht="12" customHeight="true">
+      <c r="A1598" s="8" t="e"/>
+      <c r="B1598" s="8" t="e"/>
+      <c r="C1598" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1598" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1598" s="15" t="n">
+        <v>1590</v>
+      </c>
+      <c r="F1598" s="15" t="n">
+        <v>1590</v>
+      </c>
+      <c r="G1598" s="7" t="e"/>
+    </row>
+    <row r="1599" ht="12" customHeight="true">
+      <c r="A1599" s="8" t="e"/>
+      <c r="B1599" s="8" t="e"/>
+      <c r="C1599" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1599" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1599" s="11" t="e"/>
+      <c r="F1599" s="11" t="e"/>
+      <c r="G1599" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1600" ht="12" customHeight="true">
+      <c r="A1600" s="8" t="e"/>
+      <c r="B1600" s="8" t="e"/>
+      <c r="C1600" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1600" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1600" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1600" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1600" s="7" t="e"/>
+    </row>
+    <row r="1601" ht="12" customHeight="true">
+      <c r="A1601" s="8" t="e"/>
+      <c r="B1601" s="8" t="e"/>
+      <c r="C1601" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1601" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1601" s="15" t="n">
+        <v>13990</v>
+      </c>
+      <c r="F1601" s="15" t="n">
+        <v>13990</v>
+      </c>
+      <c r="G1601" s="7" t="e"/>
+    </row>
+    <row r="1602" ht="13" customHeight="true">
+      <c r="E1602" s="13" t="n">
+        <v>17610.01</v>
+      </c>
+      <c r="F1602" s="13" t="n">
+        <v>17610.01</v>
+      </c>
+    </row>
+    <row r="1603" ht="12" customHeight="true">
+      <c r="A1603" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="B1603" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1603" s="5" t="e"/>
+      <c r="D1603" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1603" s="6" t="n">
+        <v>1512.27</v>
+      </c>
+      <c r="F1603" s="6" t="n">
+        <v>1512.27</v>
+      </c>
+      <c r="G1603" s="7" t="e"/>
+    </row>
+    <row r="1604" ht="12" customHeight="true">
+      <c r="A1604" s="8" t="e"/>
+      <c r="B1604" s="8" t="e"/>
+      <c r="C1604" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1604" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1604" s="12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1604" s="12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1604" s="7" t="e"/>
+    </row>
+    <row r="1605" ht="12" customHeight="true">
+      <c r="A1605" s="8" t="e"/>
+      <c r="B1605" s="8" t="e"/>
+      <c r="C1605" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1605" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1605" s="11" t="e"/>
+      <c r="F1605" s="11" t="e"/>
+      <c r="G1605" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1606" ht="12" customHeight="true">
+      <c r="A1606" s="8" t="e"/>
+      <c r="B1606" s="8" t="e"/>
+      <c r="C1606" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1606" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1606" s="11" t="e"/>
+      <c r="F1606" s="11" t="e"/>
+      <c r="G1606" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1607" ht="12" customHeight="true">
+      <c r="A1607" s="8" t="e"/>
+      <c r="B1607" s="8" t="e"/>
+      <c r="C1607" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1607" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1607" s="11" t="e"/>
+      <c r="F1607" s="11" t="e"/>
+      <c r="G1607" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1608" ht="12" customHeight="true">
+      <c r="A1608" s="8" t="e"/>
+      <c r="B1608" s="8" t="e"/>
+      <c r="C1608" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1608" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1608" s="11" t="e"/>
+      <c r="F1608" s="11" t="e"/>
+      <c r="G1608" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1609" ht="12" customHeight="true">
+      <c r="A1609" s="8" t="e"/>
+      <c r="B1609" s="8" t="e"/>
+      <c r="C1609" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1609" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1609" s="11" t="e"/>
+      <c r="F1609" s="11" t="e"/>
+      <c r="G1609" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1610" ht="12" customHeight="true">
+      <c r="A1610" s="8" t="e"/>
+      <c r="B1610" s="8" t="e"/>
+      <c r="C1610" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1610" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1610" s="11" t="e"/>
+      <c r="F1610" s="11" t="e"/>
+      <c r="G1610" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1611" ht="12" customHeight="true">
+      <c r="A1611" s="8" t="e"/>
+      <c r="B1611" s="8" t="e"/>
+      <c r="C1611" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1611" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1611" s="10" t="n">
+        <v>340</v>
+      </c>
+      <c r="F1611" s="10" t="n">
+        <v>340</v>
+      </c>
+      <c r="G1611" s="7" t="e"/>
+    </row>
+    <row r="1612" ht="12" customHeight="true">
+      <c r="A1612" s="8" t="e"/>
+      <c r="B1612" s="8" t="e"/>
+      <c r="C1612" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1612" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1612" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="F1612" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="G1612" s="7" t="e"/>
+    </row>
+    <row r="1613" ht="12" customHeight="true">
+      <c r="A1613" s="8" t="e"/>
+      <c r="B1613" s="8" t="e"/>
+      <c r="C1613" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1613" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1613" s="15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F1613" s="15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1613" s="7" t="e"/>
+    </row>
+    <row r="1614" ht="12" customHeight="true">
+      <c r="A1614" s="8" t="e"/>
+      <c r="B1614" s="8" t="e"/>
+      <c r="C1614" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1614" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1614" s="15" t="n">
+        <v>6940</v>
+      </c>
+      <c r="F1614" s="15" t="n">
+        <v>6940</v>
+      </c>
+      <c r="G1614" s="7" t="e"/>
+    </row>
+    <row r="1615" ht="12" customHeight="true">
+      <c r="A1615" s="8" t="e"/>
+      <c r="B1615" s="8" t="e"/>
+      <c r="C1615" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1615" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1615" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1615" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1615" s="7" t="e"/>
+    </row>
+    <row r="1616" ht="13" customHeight="true">
+      <c r="E1616" s="13" t="n">
+        <v>10022.28</v>
+      </c>
+      <c r="F1616" s="13" t="n">
+        <v>10022.28</v>
+      </c>
+    </row>
+    <row r="1617" ht="12" customHeight="true">
+      <c r="A1617" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="B1617" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1617" s="5" t="e"/>
+      <c r="D1617" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1617" s="6" t="n">
+        <v>1367.31</v>
+      </c>
+      <c r="F1617" s="6" t="n">
+        <v>1367.31</v>
+      </c>
+      <c r="G1617" s="7" t="e"/>
+    </row>
+    <row r="1618" ht="12" customHeight="true">
+      <c r="A1618" s="8" t="e"/>
+      <c r="B1618" s="8" t="e"/>
+      <c r="C1618" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1618" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1618" s="12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1618" s="12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1618" s="7" t="e"/>
+    </row>
+    <row r="1619" ht="12" customHeight="true">
+      <c r="A1619" s="8" t="e"/>
+      <c r="B1619" s="8" t="e"/>
+      <c r="C1619" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1619" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1619" s="11" t="e"/>
+      <c r="F1619" s="11" t="e"/>
+      <c r="G1619" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1620" ht="12" customHeight="true">
+      <c r="A1620" s="8" t="e"/>
+      <c r="B1620" s="8" t="e"/>
+      <c r="C1620" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1620" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1620" s="11" t="e"/>
+      <c r="F1620" s="11" t="e"/>
+      <c r="G1620" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1621" ht="12" customHeight="true">
+      <c r="A1621" s="8" t="e"/>
+      <c r="B1621" s="8" t="e"/>
+      <c r="C1621" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1621" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1621" s="11" t="e"/>
+      <c r="F1621" s="11" t="e"/>
+      <c r="G1621" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1622" ht="12" customHeight="true">
+      <c r="A1622" s="8" t="e"/>
+      <c r="B1622" s="8" t="e"/>
+      <c r="C1622" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1622" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1622" s="11" t="e"/>
+      <c r="F1622" s="11" t="e"/>
+      <c r="G1622" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1623" ht="12" customHeight="true">
+      <c r="A1623" s="8" t="e"/>
+      <c r="B1623" s="8" t="e"/>
+      <c r="C1623" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1623" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1623" s="11" t="e"/>
+      <c r="F1623" s="11" t="e"/>
+      <c r="G1623" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1624" ht="12" customHeight="true">
+      <c r="A1624" s="8" t="e"/>
+      <c r="B1624" s="8" t="e"/>
+      <c r="C1624" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1624" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1624" s="11" t="e"/>
+      <c r="F1624" s="11" t="e"/>
+      <c r="G1624" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1625" ht="12" customHeight="true">
+      <c r="A1625" s="8" t="e"/>
+      <c r="B1625" s="8" t="e"/>
+      <c r="C1625" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1625" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1625" s="10" t="n">
+        <v>340</v>
+      </c>
+      <c r="F1625" s="10" t="n">
+        <v>340</v>
+      </c>
+      <c r="G1625" s="7" t="e"/>
+    </row>
+    <row r="1626" ht="12" customHeight="true">
+      <c r="A1626" s="8" t="e"/>
+      <c r="B1626" s="8" t="e"/>
+      <c r="C1626" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1626" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1626" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="F1626" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="G1626" s="7" t="e"/>
+    </row>
+    <row r="1627" ht="12" customHeight="true">
+      <c r="A1627" s="8" t="e"/>
+      <c r="B1627" s="8" t="e"/>
+      <c r="C1627" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1627" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1627" s="15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F1627" s="15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1627" s="7" t="e"/>
+    </row>
+    <row r="1628" ht="12" customHeight="true">
+      <c r="A1628" s="8" t="e"/>
+      <c r="B1628" s="8" t="e"/>
+      <c r="C1628" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1628" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1628" s="15" t="n">
+        <v>6080</v>
+      </c>
+      <c r="F1628" s="15" t="n">
+        <v>6080</v>
+      </c>
+      <c r="G1628" s="7" t="e"/>
+    </row>
+    <row r="1629" ht="12" customHeight="true">
+      <c r="A1629" s="8" t="e"/>
+      <c r="B1629" s="8" t="e"/>
+      <c r="C1629" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1629" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1629" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1629" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1629" s="7" t="e"/>
+    </row>
+    <row r="1630" ht="13" customHeight="true">
+      <c r="E1630" s="13" t="n">
+        <v>9017.32</v>
+      </c>
+      <c r="F1630" s="13" t="n">
+        <v>9017.32</v>
+      </c>
+    </row>
+    <row r="1631" ht="12" customHeight="true">
+      <c r="A1631" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="B1631" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1631" s="5" t="e"/>
+      <c r="D1631" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1631" s="6" t="n">
+        <v>1808.98</v>
+      </c>
+      <c r="F1631" s="6" t="n">
+        <v>1808.98</v>
+      </c>
+      <c r="G1631" s="7" t="e"/>
+    </row>
+    <row r="1632" ht="12" customHeight="true">
+      <c r="A1632" s="8" t="e"/>
+      <c r="B1632" s="8" t="e"/>
+      <c r="C1632" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1632" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1632" s="12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1632" s="12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1632" s="7" t="e"/>
+    </row>
+    <row r="1633" ht="12" customHeight="true">
+      <c r="A1633" s="8" t="e"/>
+      <c r="B1633" s="8" t="e"/>
+      <c r="C1633" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1633" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1633" s="11" t="e"/>
+      <c r="F1633" s="11" t="e"/>
+      <c r="G1633" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1634" ht="12" customHeight="true">
+      <c r="A1634" s="8" t="e"/>
+      <c r="B1634" s="8" t="e"/>
+      <c r="C1634" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1634" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1634" s="11" t="e"/>
+      <c r="F1634" s="11" t="e"/>
+      <c r="G1634" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1635" ht="12" customHeight="true">
+      <c r="A1635" s="8" t="e"/>
+      <c r="B1635" s="8" t="e"/>
+      <c r="C1635" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1635" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1635" s="11" t="e"/>
+      <c r="F1635" s="11" t="e"/>
+      <c r="G1635" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1636" ht="12" customHeight="true">
+      <c r="A1636" s="8" t="e"/>
+      <c r="B1636" s="8" t="e"/>
+      <c r="C1636" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1636" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1636" s="11" t="e"/>
+      <c r="F1636" s="11" t="e"/>
+      <c r="G1636" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1637" ht="12" customHeight="true">
+      <c r="A1637" s="8" t="e"/>
+      <c r="B1637" s="8" t="e"/>
+      <c r="C1637" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1637" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1637" s="11" t="e"/>
+      <c r="F1637" s="11" t="e"/>
+      <c r="G1637" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1638" ht="12" customHeight="true">
+      <c r="A1638" s="8" t="e"/>
+      <c r="B1638" s="8" t="e"/>
+      <c r="C1638" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1638" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1638" s="11" t="e"/>
+      <c r="F1638" s="11" t="e"/>
+      <c r="G1638" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1639" ht="12" customHeight="true">
+      <c r="A1639" s="8" t="e"/>
+      <c r="B1639" s="8" t="e"/>
+      <c r="C1639" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1639" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1639" s="11" t="e"/>
+      <c r="F1639" s="11" t="e"/>
+      <c r="G1639" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1640" ht="12" customHeight="true">
+      <c r="A1640" s="8" t="e"/>
+      <c r="B1640" s="8" t="e"/>
+      <c r="C1640" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1640" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1640" s="10" t="n">
+        <v>340</v>
+      </c>
+      <c r="F1640" s="10" t="n">
+        <v>340</v>
+      </c>
+      <c r="G1640" s="7" t="e"/>
+    </row>
+    <row r="1641" ht="12" customHeight="true">
+      <c r="A1641" s="8" t="e"/>
+      <c r="B1641" s="8" t="e"/>
+      <c r="C1641" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1641" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1641" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="F1641" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="G1641" s="7" t="e"/>
+    </row>
+    <row r="1642" ht="12" customHeight="true">
+      <c r="A1642" s="8" t="e"/>
+      <c r="B1642" s="8" t="e"/>
+      <c r="C1642" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1642" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1642" s="15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F1642" s="15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1642" s="7" t="e"/>
+    </row>
+    <row r="1643" ht="12" customHeight="true">
+      <c r="A1643" s="8" t="e"/>
+      <c r="B1643" s="8" t="e"/>
+      <c r="C1643" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1643" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1643" s="15" t="n">
+        <v>6080</v>
+      </c>
+      <c r="F1643" s="15" t="n">
+        <v>6080</v>
+      </c>
+      <c r="G1643" s="7" t="e"/>
+    </row>
+    <row r="1644" ht="12" customHeight="true">
+      <c r="A1644" s="8" t="e"/>
+      <c r="B1644" s="8" t="e"/>
+      <c r="C1644" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1644" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1644" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1644" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1644" s="7" t="e"/>
+    </row>
+    <row r="1645" ht="13" customHeight="true">
+      <c r="E1645" s="13" t="n">
+        <v>9458.99</v>
+      </c>
+      <c r="F1645" s="13" t="n">
+        <v>9458.99</v>
+      </c>
+    </row>
+    <row r="1646" ht="12" customHeight="true">
+      <c r="A1646" s="3" t="n">
+        <v>102</v>
+      </c>
+      <c r="B1646" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1646" s="5" t="e"/>
+      <c r="D1646" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1646" s="3" t="n">
+        <v>625</v>
+      </c>
+      <c r="F1646" s="18" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G1646" s="7" t="e"/>
+    </row>
+    <row r="1647" ht="13" customHeight="true">
+      <c r="E1647" s="19" t="e"/>
+      <c r="F1647" s="19" t="e"/>
+    </row>
   </sheetData>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait"/>
